--- a/biology/Botanique/Bulbophyllum_jaapii/Bulbophyllum_jaapii.xlsx
+++ b/biology/Botanique/Bulbophyllum_jaapii/Bulbophyllum_jaapii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulbophyllum jaapii Szlach. &amp; Olszewski est une espèce d'orchidées du genre Bulbophyllum, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique jaapii rend au hommage au botaniste néerlandais Jaap J. Vermeulen (en), spécialiste du genre Bulbophyllum.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une herbe épiphyte de la famille des Orchidaceae, possédant des pseudobulbes bifoliés étroitement cylindriques à cannelures verticales, des feuilles sessiles, étroitement lancéolées, épaisses et coriaces, avec une nervure médiane et des marges violettes, une inflorescence dense et rachis non épaissi, des fleurs petites, glabres, un labelle linéaire et brièvement cilié.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Très rare, on la trouve au Mont Koupé au Cameroun.
 </t>
